--- a/testData/case/case_repair.xlsx
+++ b/testData/case/case_repair.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="repair_apply_add" sheetId="10" r:id="rId1"/>
     <sheet name="repair_apply_houselist" sheetId="8" r:id="rId2"/>
     <sheet name="repair_apply_detail" sheetId="33" r:id="rId3"/>
     <sheet name="repair_apply_update" sheetId="34" r:id="rId4"/>
-    <sheet name="repair_category_add" sheetId="36" r:id="rId5"/>
-    <sheet name="repair_category_list" sheetId="37" r:id="rId6"/>
-    <sheet name="repair_category_detail" sheetId="38" r:id="rId7"/>
-    <sheet name="repair_category_startusing" sheetId="39" r:id="rId8"/>
-    <sheet name="repair_category_update" sheetId="40" r:id="rId9"/>
-    <sheet name="repair_goods_add" sheetId="42" r:id="rId10"/>
-    <sheet name="repair_goods_list" sheetId="43" r:id="rId11"/>
-    <sheet name="repair_goods_detail" sheetId="44" r:id="rId12"/>
-    <sheet name="repair_goods_update" sheetId="45" r:id="rId13"/>
-    <sheet name="repair_goods_getgoods" sheetId="41" r:id="rId14"/>
+    <sheet name="repair_category" sheetId="46" r:id="rId5"/>
+    <sheet name="repair_category_add" sheetId="36" r:id="rId6"/>
+    <sheet name="repair_category_list" sheetId="37" r:id="rId7"/>
+    <sheet name="repair_category_detail" sheetId="38" r:id="rId8"/>
+    <sheet name="repair_category_startusing" sheetId="39" r:id="rId9"/>
+    <sheet name="repair_category_update" sheetId="40" r:id="rId10"/>
+    <sheet name="repair_goods_add" sheetId="42" r:id="rId11"/>
+    <sheet name="repair_goods_list" sheetId="43" r:id="rId12"/>
+    <sheet name="repair_goods_detail" sheetId="44" r:id="rId13"/>
+    <sheet name="repair_goods_update" sheetId="45" r:id="rId14"/>
+    <sheet name="repair_goods_getgoods" sheetId="41" r:id="rId15"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="112">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -429,6 +430,476 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>/repair/category/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"自动化",
+"status":0
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"自动化"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"自动化",
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-添加(默认)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-添加（停用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-添加（启用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":5,
+"where":{
+"community_name":"UI",
+"house_no":"",
+"contract_no":"",
+"user_info":""}
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":5,
+"where":{
+"community_name":"UI",
+"house_no":"",
+"contract_no":"",
+"user_info":"18211078892"}
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":5,
+"where":{
+"community_name":"UI",
+"house_no":"",
+"contract_no":"",
+"user_info":"刘昱良"}
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":27
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category/startUsing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category_startusing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-列表（启用中）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":27,
+"name":"空气",
+"state":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-项目-添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"空气1",
+"status":0,
+"category_id":27,
+"min_price":50,
+"max_price":70,
+"desc":"描述"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-项目-列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"page":1,
+"page_size":3
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-项目-详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":8
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-项目-修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":8,
+"name":"空气2",
+"status":0,
+"category_id":44,
+"min_price":1,
+"max_price":10,
+"desc":"空气2"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":8,
+"name":"空气突然的安静",
+"status":1,
+"category_id":27,
+"min_price":100,
+"max_price":300,
+"desc":"我的空气都别动"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":8,
+"name":"空气2",
+"status":"",
+"category_id":44,
+"min_price":1,
+"max_price":10,
+"desc":"空气2"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods/getGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods_getgoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"category_id":27,
+"page":1,
+"page_size":3
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-项目-根据维修类别获取项目列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"空气1",
+"status":1,
+"category_id":27,
+"min_price":50,
+"max_price":70,
+"desc":"描述"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"空气1",
+"status":"",
+"category_id":27,
+"min_price":50,
+"max_price":70,
+"desc":"描述"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":27,
+"name":"空气1",
+"state":0
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"page":1,
+"page_size":3
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":27,
+"name":"空气1",
+"state":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-用户端-维修类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">{
 "source": 4,
 "version": "2.0",
@@ -445,449 +916,6 @@
 "priority_level":1,
 "create_user":15658,
 "img_id":""
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category_add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"自动化",
-"status":0
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"自动化"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"自动化",
-"status":1
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-添加(默认)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-添加（停用）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-添加（启用）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":5,
-"where":{
-"community_name":"UI",
-"house_no":"",
-"contract_no":"",
-"user_info":""}
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":5,
-"where":{
-"community_name":"UI",
-"house_no":"",
-"contract_no":"",
-"user_info":"18211078892"}
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":5,
-"where":{
-"community_name":"UI",
-"house_no":"",
-"contract_no":"",
-"user_info":"刘昱良"}
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category/detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":""
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":27
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category/startUsing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category_startusing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-列表（启用中）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":""
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category/update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category_update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":27,
-"name":"空气",
-"state":1
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/goods/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-项目-添加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_goods_add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"空气1",
-"status":0,
-"category_id":27,
-"min_price":50,
-"max_price":70,
-"desc":"描述"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/goods/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_goods_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-项目-列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"page":1,
-"page_size":3
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/goods/detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-项目-详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_goods_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":8
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/goods/update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_goods_update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-项目-修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":8,
-"name":"空气2",
-"status":0,
-"category_id":44,
-"min_price":1,
-"max_price":10,
-"desc":"空气2"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":8,
-"name":"空气突然的安静",
-"status":1,
-"category_id":27,
-"min_price":100,
-"max_price":300,
-"desc":"我的空气都别动"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":8,
-"name":"空气2",
-"status":"",
-"category_id":44,
-"min_price":1,
-"max_price":10,
-"desc":"空气2"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/goods/getGoods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_goods_getgoods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"category_id":27,
-"page":1,
-"page_size":3
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-项目-根据维修类别获取项目列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"空气1",
-"status":1,
-"category_id":27,
-"min_price":50,
-"max_price":70,
-"desc":"描述"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"空气1",
-"status":"",
-"category_id":27,
-"min_price":50,
-"max_price":70,
-"desc":"描述"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":27,
-"name":"空气1",
-"state":0
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"page":1,
-"page_size":3
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":27,
-"name":"空气1",
-"state":1
 }
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1664,6 +1692,145 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1707,10 +1874,10 @@
     </row>
     <row r="2" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1719,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1736,10 +1903,10 @@
     </row>
     <row r="3" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -1748,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -1765,10 +1932,10 @@
     </row>
     <row r="4" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -1777,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -1799,7 +1966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1847,22 +2014,22 @@
     </row>
     <row r="2" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1880,7 +2047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1928,22 +2095,22 @@
     </row>
     <row r="2" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1961,7 +2128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2009,22 +2176,22 @@
     </row>
     <row r="2" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2038,22 +2205,22 @@
     </row>
     <row r="3" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2067,22 +2234,22 @@
     </row>
     <row r="4" spans="1:9" ht="201" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2100,12 +2267,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2146,12 +2313,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2160,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2244,7 +2411,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2273,7 +2440,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2302,7 +2469,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2435,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2494,7 +2661,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2544,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2590,22 +2757,22 @@
     </row>
     <row r="2" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2614,64 +2781,6 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2683,6 +2792,146 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2730,10 +2979,10 @@
     </row>
     <row r="2" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2742,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2763,7 +3012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -2811,10 +3060,10 @@
     </row>
     <row r="2" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2823,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2840,10 +3089,10 @@
     </row>
     <row r="3" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2852,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2873,7 +3122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2921,10 +3170,10 @@
     </row>
     <row r="2" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2933,10 +3182,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2945,145 +3194,6 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
     </row>

--- a/testData/case/case_repair.xlsx
+++ b/testData/case/case_repair.xlsx
@@ -4,31 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="repair_apply_add" sheetId="10" r:id="rId1"/>
     <sheet name="repair_apply_houselist" sheetId="8" r:id="rId2"/>
     <sheet name="repair_apply_detail" sheetId="33" r:id="rId3"/>
     <sheet name="repair_apply_update" sheetId="34" r:id="rId4"/>
-    <sheet name="repair_category" sheetId="46" r:id="rId5"/>
-    <sheet name="repair_category_add" sheetId="36" r:id="rId6"/>
-    <sheet name="repair_category_list" sheetId="37" r:id="rId7"/>
-    <sheet name="repair_category_detail" sheetId="38" r:id="rId8"/>
-    <sheet name="repair_category_startusing" sheetId="39" r:id="rId9"/>
-    <sheet name="repair_category_update" sheetId="40" r:id="rId10"/>
-    <sheet name="repair_goods_add" sheetId="42" r:id="rId11"/>
-    <sheet name="repair_goods_list" sheetId="43" r:id="rId12"/>
-    <sheet name="repair_goods_detail" sheetId="44" r:id="rId13"/>
-    <sheet name="repair_goods_update" sheetId="45" r:id="rId14"/>
-    <sheet name="repair_goods_getgoods" sheetId="41" r:id="rId15"/>
+    <sheet name="repair_category_add" sheetId="36" r:id="rId5"/>
+    <sheet name="repair_category_list" sheetId="37" r:id="rId6"/>
+    <sheet name="repair_category_detail" sheetId="38" r:id="rId7"/>
+    <sheet name="repair_category_startusing" sheetId="39" r:id="rId8"/>
+    <sheet name="repair_category_update" sheetId="40" r:id="rId9"/>
+    <sheet name="repair_goods_add" sheetId="42" r:id="rId10"/>
+    <sheet name="repair_goods_list" sheetId="43" r:id="rId11"/>
+    <sheet name="repair_goods_detail" sheetId="44" r:id="rId12"/>
+    <sheet name="repair_goods_update" sheetId="45" r:id="rId13"/>
+    <sheet name="repair_goods_getgoods" sheetId="41" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="107">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -378,13 +377,378 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
 "source": 4,
 "version": "2.0",
 "site_id": 1,
 "timestamp":"",
-"id":68
-}</t>
+"id":"",
+"house_id":1639458,
+"source":1,
+"user_id":2320,
+"user_name":"刘昱良",
+"mobile":"18211078892",
+"goods_id":[8],
+"desc":"我是描述2",
+"priority_level":1,
+"create_user":15658,
+"img_id":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"自动化",
+"status":0
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"自动化"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"自动化",
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-添加(默认)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-添加（停用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-添加（启用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":5,
+"where":{
+"community_name":"UI",
+"house_no":"",
+"contract_no":"",
+"user_info":"18211078892"}
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":5,
+"where":{
+"community_name":"UI",
+"house_no":"",
+"contract_no":"",
+"user_info":"刘昱良"}
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category/startUsing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category_startusing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-列表（启用中）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-类别-修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-项目-添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"空气1",
+"status":0,
+"category_id":27,
+"min_price":50,
+"max_price":70,
+"desc":"描述"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-项目-列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"page":1,
+"page_size":3
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-项目-详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":8
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-项目-修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":8,
+"name":"空气2",
+"status":"",
+"category_id":44,
+"min_price":1,
+"max_price":10,
+"desc":"空气2"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods/getGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods_getgoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"category_id":27,
+"page":1,
+"page_size":3
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-项目-根据维修类别获取项目列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"空气1",
+"status":1,
+"category_id":27,
+"min_price":50,
+"max_price":70,
+"desc":"描述"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"name":"空气1",
+"status":"",
+"category_id":27,
+"min_price":50,
+"max_price":70,
+"desc":"描述"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":27,
+"name":"空气1",
+"state":0
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"page":1,
+"page_size":3
+}
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -414,82 +778,6 @@
 "version": "2.0",
 "site_id": 1,
 "timestamp":"",
-"id":"",
-"house_id":1639458,
-"source":1,
-"user_id":2320,
-"user_name":"刘昱良",
-"mobile":"18211078892",
-"goods_id":[8],
-"desc":"我是描述2",
-"priority_level":1,
-"create_user":15658,
-"img_id":""
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category_add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"自动化",
-"status":0
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"自动化"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"自动化",
-"status":1
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-添加(默认)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-添加（停用）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-添加（启用）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
 "admin_id":15658,
 "page":1,
 "page_size":5,
@@ -503,400 +791,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
+    <t>{
 "source": 4,
 "version": "2.0",
 "site_id": 1,
 "timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":5,
-"where":{
-"community_name":"UI",
-"house_no":"",
-"contract_no":"",
-"user_info":"18211078892"}
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":5,
-"where":{
-"community_name":"UI",
-"house_no":"",
-"contract_no":"",
-"user_info":"刘昱良"}
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category/detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":""
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":27
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category/startUsing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category_startusing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-列表（启用中）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":""
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category/update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category_update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-类别-修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":27,
-"name":"空气",
-"state":1
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/goods/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-项目-添加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_goods_add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"空气1",
-"status":0,
-"category_id":27,
-"min_price":50,
-"max_price":70,
-"desc":"描述"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/goods/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_goods_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-项目-列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"page":1,
-"page_size":3
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/goods/detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-项目-详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_goods_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":8
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/goods/update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_goods_update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-项目-修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":8,
-"name":"空气2",
-"status":0,
-"category_id":44,
-"min_price":1,
-"max_price":10,
-"desc":"空气2"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":8,
-"name":"空气突然的安静",
-"status":1,
-"category_id":27,
-"min_price":100,
-"max_price":300,
-"desc":"我的空气都别动"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":8,
-"name":"空气2",
-"status":"",
-"category_id":44,
-"min_price":1,
-"max_price":10,
-"desc":"空气2"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/goods/getGoods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_goods_getgoods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"category_id":27,
-"page":1,
-"page_size":3
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-项目-根据维修类别获取项目列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"空气1",
-"status":1,
-"category_id":27,
-"min_price":50,
-"max_price":70,
-"desc":"描述"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"name":"空气1",
-"status":"",
-"category_id":27,
-"min_price":50,
-"max_price":70,
-"desc":"描述"
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":27,
-"name":"空气1",
-"state":0
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"page":1,
-"page_size":3
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 1,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"id":27,
-"name":"空气1",
-"state":1
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-用户端-维修类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":""
-}
-</t>
+"id":68
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -916,6 +817,77 @@
 "priority_level":1,
 "create_user":15658,
 "img_id":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":27
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":27,
+"name":"空气1",
+"state":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":27,
+"name":"空气",
+"state":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":8,
+"name":"空气2",
+"status":0,
+"category_id":44,
+"min_price":1,
+"max_price":10,
+"desc":"空气2"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":8,
+"name":"空气突然的安静",
+"status":1,
+"category_id":27,
+"min_price":100,
+"max_price":300,
+"desc":"我的空气都别动"
 }
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1349,7 +1321,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1407,7 +1379,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1691,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1733,12 +1705,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1747,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1762,12 +1734,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -1776,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -1791,12 +1763,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -1805,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -1823,15 +1795,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1874,22 +1847,22 @@
     </row>
     <row r="2" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1898,71 +1871,12 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1971,7 +1885,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2014,13 +1928,13 @@
     </row>
     <row r="2" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -2029,7 +1943,7 @@
         <v>81</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2049,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2093,32 +2007,90 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="201" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2130,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2174,15 +2146,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -2191,146 +2163,7 @@
         <v>90</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="201" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2411,7 +2244,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2440,7 +2273,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2469,7 +2302,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2550,7 +2383,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2602,7 +2435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2661,7 +2494,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2690,7 +2523,7 @@
         <v>46</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2711,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2757,22 +2590,22 @@
     </row>
     <row r="2" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2781,6 +2614,64 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2792,146 +2683,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2979,10 +2730,10 @@
     </row>
     <row r="2" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2991,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3012,12 +2763,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3060,10 +2811,10 @@
     </row>
     <row r="2" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3072,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3089,10 +2840,10 @@
     </row>
     <row r="3" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -3101,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3122,7 +2873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3170,13 +2921,94 @@
     </row>
     <row r="2" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -3185,7 +3017,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3194,6 +3026,64 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
     </row>

--- a/testData/case/case_repair.xlsx
+++ b/testData/case/case_repair.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="repair_apply_add" sheetId="10" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="repair_goods_detail" sheetId="44" r:id="rId12"/>
     <sheet name="repair_goods_update" sheetId="45" r:id="rId13"/>
     <sheet name="repair_goods_getgoods" sheetId="41" r:id="rId14"/>
+    <sheet name="repair_repair_list" sheetId="46" r:id="rId15"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="122">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -888,6 +889,330 @@
 "min_price":100,
 "max_price":300,
 "desc":"我的空气都别动"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/repair/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_repair_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-申请-申请列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":0,
+"overtime":0,
+"repair_source":0,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":1,
+"overtime":0,
+"repair_source":0,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":2,
+"overtime":0,
+"repair_source":0,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":0,
+"overtime":1,
+"repair_source":0,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":0,
+"overtime":2,
+"repair_source":0,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":0,
+"overtime":0,
+"repair_source":1,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":0,
+"overtime":0,
+"repair_source":2,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":0,
+"overtime":0,
+"repair_source":3,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":0,
+"overtime":0,
+"repair_source":0,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":2
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":0,
+"overtime":0,
+"repair_source":0,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":3
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":0,
+"overtime":0,
+"repair_source":0,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":4
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"community_name":"",
+"page":1,
+"page_size":3,
+"house_no":"",
+"priority_level":0,
+"overtime":0,
+"repair_source":0,
+"user_name":"",
+"mobile ":"18211078892",
+"boss_name":"",
+"contract_no":"",
+"repair_stime":"",
+"repair_etime":"",
+"booking_stime":"",
+"booking_etime":"",
+"status":5
 }
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1320,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2104,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2172,6 +2497,406 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>10</v>
       </c>
     </row>

--- a/testData/case/case_repair.xlsx
+++ b/testData/case/case_repair.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="repair_apply_add" sheetId="10" r:id="rId1"/>
@@ -117,27 +117,6 @@
 "site_id": 1,
 "timestamp":"",
 "house_id":1639458,
-"source":2,
-"user_id":2320,
-"user_name":"刘昱良",
-"mobile":"18211078892",
-"goods_id":[1],
-"desc":"我是描述",
-"priority_level":1,
-"create_user":15658,
-"img_id":"",
-"channel":1
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1639458,
 "source":3,
 "user_id":2320,
 "user_name":"刘昱良",
@@ -253,57 +232,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1639458,
-"source":1,
-"user_id":2320,
-"user_name":"刘昱良",
-"mobile":"18211078892",
-"goods_id":[1],
-"desc":"我是描述",
-"priority_level":1,
-"create_user":15658,
-"img_id":"",
-"channel":5
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>维修管理-申请-添加申请(来源：租客，紧急程度：一般，渠道：H5，创建人：管家)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>维修管理-申请-添加申请(来源：租客，紧急程度：一般，渠道：默认，创建人：管家)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1639458,
-"source":1,
-"user_id":2320,
-"user_name":"刘昱良",
-"mobile":"18211078892",
-"goods_id":[1],
-"desc":"我是描述",
-"priority_level":1,
-"create_user":15658,
-"img_id":"",
-"channel":""
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-申请-添加申请(来源：租客，紧急程度：一般，渠道：后台，创建人：租客)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1213,6 +1146,73 @@
 "booking_stime":"",
 "booking_etime":"",
 "status":5
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1639458,
+"source":2,
+"user_id":2320,
+"user_name":"刘昱良",
+"mobile":"18211078892",
+"goods_id":[1],
+"desc":"我是描述",
+"priority_level":1,
+"create_user":15658,
+"img_id":"",
+"channel":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-申请-添加申请(来源：租客，紧急程度：一般，渠道：后台，创建人：租客)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1639458,
+"source":1,
+"user_id":2320,
+"user_name":"刘昱良",
+"mobile":"18211078892",
+"goods_id":[1],
+"desc":"我是描述",
+"priority_level":1,
+"create_user":15658,
+"img_id":"",
+"channel":5
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1639458,
+"source":1,
+"user_id":2320,
+"user_name":"刘昱良",
+"mobile":"18211078892",
+"goods_id":[1],
+"desc":"我是描述",
+"priority_level":1,
+"create_user":15658,
+"img_id":"",
+"channel":""
 }
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1645,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1704,7 +1704,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -1791,7 +1791,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -1820,7 +1820,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1849,7 +1849,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1878,7 +1878,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1907,7 +1907,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -1936,7 +1936,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -1989,7 +1989,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="2" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2061,10 +2061,10 @@
     </row>
     <row r="3" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -2073,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="4" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -2102,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2172,22 +2172,22 @@
     </row>
     <row r="2" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2253,22 +2253,22 @@
     </row>
     <row r="2" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2334,22 +2334,22 @@
     </row>
     <row r="2" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2363,22 +2363,22 @@
     </row>
     <row r="3" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2392,22 +2392,22 @@
     </row>
     <row r="4" spans="1:9" ht="201" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="2" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2510,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="2" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2583,10 +2583,10 @@
     </row>
     <row r="3" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2595,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="4" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -2624,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="5" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -2653,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="6" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -2699,10 +2699,10 @@
     </row>
     <row r="7" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -2711,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="8" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -2740,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="9" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="10" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="11" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="12" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -2856,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="13" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -2954,10 +2954,10 @@
     </row>
     <row r="2" spans="1:9" ht="204.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2966,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2983,10 +2983,10 @@
     </row>
     <row r="3" spans="1:9" ht="200.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3012,10 +3012,10 @@
     </row>
     <row r="4" spans="1:9" ht="200.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3105,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3117,15 +3117,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -3134,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3204,10 +3204,10 @@
     </row>
     <row r="2" spans="1:9" ht="259.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="3" spans="1:9" ht="259.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3271,7 +3271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3315,10 +3315,10 @@
     </row>
     <row r="2" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -3327,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="3" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3373,10 +3373,10 @@
     </row>
     <row r="4" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -3385,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="2" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3467,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="2" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="3" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -3577,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3646,10 +3646,10 @@
     </row>
     <row r="2" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3658,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3727,10 +3727,10 @@
     </row>
     <row r="2" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -3739,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="3" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -3768,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>

--- a/testData/case/case_repair.xlsx
+++ b/testData/case/case_repair.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="repair_apply_add" sheetId="10" r:id="rId1"/>
@@ -22,13 +22,24 @@
     <sheet name="repair_goods_update" sheetId="45" r:id="rId13"/>
     <sheet name="repair_goods_getgoods" sheetId="41" r:id="rId14"/>
     <sheet name="repair_repair_list" sheetId="46" r:id="rId15"/>
+    <sheet name="repair_booking_boss" sheetId="47" r:id="rId16"/>
+    <sheet name="repair_booking_worker" sheetId="48" r:id="rId17"/>
+    <sheet name="repair_booking_add" sheetId="49" r:id="rId18"/>
+    <sheet name="repair_booking_update" sheetId="50" r:id="rId19"/>
+    <sheet name="repair_booking_detail" sheetId="51" r:id="rId20"/>
+    <sheet name="repair_cost_detail" sheetId="53" r:id="rId21"/>
+    <sheet name="repair_cost_renter" sheetId="52" r:id="rId22"/>
+    <sheet name="repair_cost_owner" sheetId="54" r:id="rId23"/>
+    <sheet name="repair_cost_add" sheetId="55" r:id="rId24"/>
+    <sheet name="repair_cost_renterbill" sheetId="56" r:id="rId25"/>
+    <sheet name="repair_cost_ownerbill" sheetId="59" r:id="rId26"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="165">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1213,6 +1224,282 @@
 "create_user":15658,
 "img_id":"",
 "channel":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/booking/boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_booking_boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修跟进-供应商列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"id":"",
+"name":"",
+"mobile":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/booking/worker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_booking_worker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修跟进-供应商工人列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"user_id":"",
+"name":"",
+"mobile":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/booking/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_booking_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修跟进-添加跟进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/booking/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_booking_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修跟进-修改跟进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"app_id":429,
+"type":2,
+"boss_id":93,
+"boss_mobile":"16601115658",
+"booking_time":"",
+"desc":"",
+"worker_id":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_booking_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修跟进-跟进详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/booking/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"app_id":429
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"app_id":429,
+"type":2,
+"boss_id":93,
+"booking_time":"",
+"desc":"",
+"worker_id":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/cost/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_cost_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修完成-完成详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/cost/renter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_cost_renter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修完成-获取租户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/cost/owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_cost_owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修完成-获取业主</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_cost_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修完成-添加维修结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/cost/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"app_id":429
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"app_id":429
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"app_id":429,
+"last_status":1,
+"goods_id":[],
+"cost":[],
+"material":"",
+"material_size":"",
+"material_amount":"",
+"material_cost":"",
+"person_liable":2,
+"pay_id":"",
+"total_amount":"",
+"pay_time":"",
+"desc":"",
+"bill_id":"",
+"img_id":"",
+"signing_id":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/cost/renterBill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_cost_renterbill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修完成-租客账期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"app_id":459,
+"pay_time":"2018-09-07",
+"user_id":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/cost/ownerBill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_cost_ownerbill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-维修完成-业主账期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 1,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"app_id":459,
+"pay_time":"2018-09-07",
+"user_id":1
 }
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2430,6 +2717,487 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2471,12 +3239,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2485,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2503,15 +3271,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2552,12 +3321,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2566,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2578,331 +3347,176 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3042,6 +3656,576 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="319.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3271,7 +4455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
